--- a/0_data/9_evaluation/distances/c_50/c_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/c_50/c_50_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.90379825653798</v>
+        <v>16.05601494396015</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>3.833171896006568</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.9749</v>
+        <v>15.2376</v>
       </c>
       <c r="C4" t="n">
-        <v>11.99</v>
+        <v>13.55</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2892</v>
+        <v>3.2701</v>
       </c>
       <c r="E4" t="n">
-        <v>19.54</v>
+        <v>20.79</v>
       </c>
       <c r="F4" t="n">
-        <v>5.7263</v>
+        <v>5.643400000000002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0159</v>
+        <v>0.0121</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3374</v>
+        <v>2.2686</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>118.58</v>
       </c>
       <c r="J4" t="n">
-        <v>321.34</v>
+        <v>321.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7385</v>
+        <v>5.9406</v>
       </c>
       <c r="L4" t="n">
-        <v>2.952100000000001</v>
+        <v>2.9069</v>
       </c>
       <c r="M4" t="n">
-        <v>4.9165</v>
+        <v>4.7745</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[75.65, 24.24, 117.22, 46.1, 12.67, 20.63, 0.16, 12.45, 2.98, 3.66, 1.81, 0.21, 2.13, 0.04, 0.17, 0.09, 0.04, 0.07, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[86.42, 21.03, 113.02, 43.79, 10.86, 22.24, 0.47, 12.63, 2.05, 3.14, 2.22, 0.24, 1.74, 0.04, 0.36, 0.12, 0.03, 0.05, 0.01, 0.06, 0.0, 0.03, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[56.66, 0.23, 54.78, 0.23, 63.8, 13.34, 1.03, 53.7, 0.51, 55.03, 0.38, 21.65]</t>
+          <t>[32.28, 21.24, 31.72, 22.74, 23.93, 25.44, 25.46, 34.21, 22.25, 27.68, 26.89, 27.76]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[10.41, 64.15, 145.26, 21.61, 41.64, 3.14, 9.38, 2.56, 6.9, 1.16, 2.81, 1.09, 3.13, 0.53, 1.8, 0.52, 1.87, 0.26, 0.69, 0.17, 0.68, 0.12, 0.27, 0.06, 0.24, 0.02, 0.07, 0.03, 0.06, 0.02, 0.02, 0.0]</t>
+          <t>[5.51, 90.9, 128.82, 23.9, 33.52, 4.09, 8.13, 2.23, 6.28, 1.54, 3.03, 1.09, 3.28, 0.86, 1.93, 0.77, 2.03, 0.49, 0.77, 0.24, 0.53, 0.11, 0.31, 0.11, 0.24, 0.05, 0.08, 0.06, 0.06, 0.01, 0.04, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[4.12, 95.06, 53.68, 83.96, 12.17, 15.98, 0.0, 26.14, 0.0, 4.04, 2.34, 5.08, 1.62, 1.89, 0.0, 4.92, 0.0, 1.27, 0.64, 1.34, 0.46, 0.74, 0.0, 1.52, 0.0, 0.5, 0.26, 0.59, 0.17, 0.35, 0.0, 0.83, 0.01, 0.17, 0.08, 0.18, 0.04, 0.04, 0.0, 0.24, 0.0, 0.03, 0.02, 0.09, 0.0, 0.0, 0.0, 0.1, 0.0, 0.01, 0.01, 0.07, 0.0, 0.01, 0.0, 0.07, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.12]</t>
+          <t>[7.44, 118.3, 45.85, 66.89, 15.72, 16.22, 0.02, 18.79, 0.0, 5.16, 2.79, 4.89, 1.78, 2.03, 0.0, 4.37, 0.0, 1.47, 0.64, 1.75, 0.5, 1.05, 0.0, 1.7, 0.0, 0.57, 0.28, 0.49, 0.15, 0.33, 0.0, 0.63, 0.0, 0.21, 0.11, 0.19, 0.02, 0.08, 0.0, 0.18, 0.0, 0.01, 0.02, 0.09, 0.03, 0.0, 0.0, 0.13, 0.0, 0.03, 0.01, 0.06, 0.0, 0.01, 0.0, 0.07, 0.0, 0.03, 0.03, 0.02, 0.0, 0.04, 0.0, 0.14]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[13.3, 0.02, 15.83, 0.0, 5.1, 0.63, 0.01, 3.73, 0.05, 10.42, 0.04, 7.4], [0.01, 0.02, 0.08, 0.03, 0.03, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.02], [16.75, 0.07, 12.21, 0.02, 17.33, 0.76, 0.1, 3.09, 0.02, 2.59, 0.03, 1.64], [0.0, 0.01, 0.03, 0.04, 0.01, 0.08, 0.0, 0.01, 0.01, 0.0, 0.02, 0.01], [6.02, 0.03, 18.94, 0.02, 15.72, 4.69, 0.29, 11.67, 0.03, 4.85, 0.0, 1.32], [0.42, 0.0, 0.59, 0.08, 5.18, 3.68, 0.07, 2.65, 0.03, 0.55, 0.02, 0.02], [0.01, 0.0, 0.06, 0.0, 0.34, 0.03, 0.19, 0.13, 0.01, 0.17, 0.0, 0.07], [3.68, 0.04, 3.5, 0.01, 13.09, 2.86, 0.24, 14.24, 0.05, 14.71, 0.01, 1.12], [0.0, 0.01, 0.02, 0.01, 0.05, 0.04, 0.02, 0.05, 0.11, 0.13, 0.04, 0.03], [10.19, 0.0, 2.52, 0.0, 5.65, 0.54, 0.09, 15.83, 0.11, 13.99, 0.04, 5.88], [0.02, 0.01, 0.03, 0.02, 0.02, 0.02, 0.0, 0.05, 0.05, 0.0, 0.16, 0.0], [6.1, 0.02, 0.96, 0.0, 0.98, 0.01, 0.02, 1.97, 0.04, 7.37, 0.01, 4.12]]</t>
+          <t>[[9.8, 0.89, 5.76, 1.64, 0.62, 1.37, 0.04, 2.14, 0.52, 2.52, 5.0, 1.91], [0.83, 5.99, 0.67, 3.47, 1.25, 0.26, 1.11, 0.04, 1.2, 0.44, 1.53, 4.36], [7.11, 0.69, 8.83, 1.12, 4.91, 1.68, 0.6, 2.34, 0.01, 1.35, 0.74, 2.23], [1.71, 3.52, 1.29, 5.73, 0.96, 3.73, 2.29, 0.49, 1.33, 0.06, 0.99, 0.54], [0.52, 1.1, 5.94, 1.04, 5.32, 0.54, 3.39, 2.42, 0.61, 1.5, 0.06, 1.42], [1.38, 0.33, 2.42, 4.04, 0.67, 7.01, 0.37, 5.2, 1.89, 0.49, 1.55, 0.04], [0.04, 1.6, 0.7, 2.29, 3.9, 0.48, 7.44, 1.09, 4.22, 1.5, 0.48, 1.63], [1.79, 0.06, 1.53, 0.42, 2.85, 6.43, 1.28, 10.28, 0.27, 6.26, 2.26, 0.7], [0.3, 1.08, 0.02, 1.27, 0.41, 1.91, 5.11, 0.3, 5.47, 0.17, 4.37, 1.79], [2.23, 0.35, 1.64, 0.08, 1.83, 0.66, 1.58, 6.62, 0.29, 7.02, 0.99, 4.29], [4.87, 1.46, 0.67, 1.06, 0.02, 1.29, 0.69, 2.31, 4.31, 1.49, 7.53, 1.08], [1.62, 4.09, 2.18, 0.51, 1.12, 0.01, 1.46, 0.89, 2.04, 4.75, 1.27, 7.74]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.04, 0.91, 0.61, 1.95, 0.08, 0.09, 0.0, 0.24, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.69, 50.52, 12.93, 14.69, 2.44, 4.89, 0.0, 2.67, 0.0, 1.23, 0.5, 0.82, 0.35, 0.68, 0.0, 0.82, 0.0, 0.37, 0.11, 0.2, 0.06, 0.16, 0.0, 0.29, 0.0, 0.06, 0.03, 0.06, 0.04, 0.01, 0.0, 0.08, 0.0, 0.03, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.14, 12.96, 21.65, 8.61, 1.69, 2.22, 0.0, 2.12, 0.0, 0.71, 0.48, 0.58, 0.29, 0.3, 0.0, 0.49, 0.0, 0.15, 0.15, 0.21, 0.06, 0.08, 0.0, 0.16, 0.0, 0.09, 0.07, 0.03, 0.04, 0.05, 0.0, 0.06, 0.01, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.82, 13.04, 7.39, 36.61, 3.03, 3.55, 0.0, 6.82, 0.0, 1.14, 0.78, 2.17, 0.6, 0.59, 0.0, 1.81, 0.0, 0.49, 0.18, 0.48, 0.15, 0.22, 0.0, 0.42, 0.0, 0.22, 0.06, 0.29, 0.04, 0.16, 0.0, 0.25, 0.0, 0.05, 0.04, 0.13, 0.01, 0.01, 0.0, 0.09, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02], [0.04, 2.38, 1.54, 3.04, 2.16, 0.72, 0.0, 0.89, 0.0, 0.19, 0.08, 0.31, 0.07, 0.07, 0.0, 0.21, 0.0, 0.01, 0.06, 0.06, 0.03, 0.03, 0.0, 0.08, 0.0, 0.01, 0.01, 0.03, 0.01, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17, 4.2, 2.43, 3.09, 0.73, 2.41, 0.0, 0.95, 0.0, 0.28, 0.1, 0.21, 0.12, 0.12, 0.0, 0.3, 0.0, 0.14, 0.04, 0.11, 0.03, 0.11, 0.0, 0.11, 0.0, 0.02, 0.03, 0.05, 0.0, 0.01, 0.0, 0.06, 0.0, 0.03, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 2.94, 2.02, 5.95, 0.73, 0.8, 0.0, 9.63, 0.0, 0.26, 0.23, 0.58, 0.1, 0.06, 0.0, 0.94, 0.0, 0.09, 0.09, 0.15, 0.07, 0.09, 0.0, 0.38, 0.0, 0.06, 0.05, 0.08, 0.03, 0.05, 0.0, 0.26, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.1, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.39, 0.77, 1.04, 0.22, 0.18, 0.0, 0.2, 0.0, 0.06, 0.03, 0.03, 0.02, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.57, 0.65, 0.61, 0.07, 0.11, 0.0, 0.18, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 1.29, 0.58, 2.23, 0.13, 0.1, 0.0, 0.46, 0.0, 0.02, 0.02, 0.06, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.39, 0.22, 0.53, 0.07, 0.21, 0.0, 0.09, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.72, 0.36, 0.47, 0.05, 0.11, 0.0, 0.07, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.03, 0.69, 1.84, 0.19, 0.09, 0.0, 0.69, 0.0, 0.01, 0.04, 0.08, 0.02, 0.01, 0.0, 0.08, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.59, 0.22, 0.23, 0.07, 0.07, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.17, 0.18, 0.17, 0.01, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36, 0.22, 0.46, 0.08, 0.04, 0.0, 0.1, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.05, 0.14, 0.05, 0.04, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.2, 0.13, 0.04, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.3, 0.3, 0.48, 0.03, 0.06, 0.0, 0.21, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.1, 0.15, 0.04, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.05, 0.07, 0.08, 0.02, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.11, 0.18, 0.03, 0.04, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.03, 0.06, 0.02, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.05, 0.16, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.03, 0.32, 0.05, 0.03, 0.0, 0.2, 0.0, 0.0, 0.02, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.03, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.03, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.01, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.11, 0.01, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.05, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.08, 3.94, 1.04, 1.77, 0.07, 0.1, 0.0, 0.25, 0.0, 0.02, 0.03, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [4.43, 64.25, 14.77, 14.5, 3.58, 5.47, 0.01, 3.15, 0.0, 1.97, 0.6, 0.99, 0.45, 0.79, 0.0, 0.88, 0.0, 0.42, 0.16, 0.39, 0.04, 0.22, 0.0, 0.29, 0.0, 0.12, 0.08, 0.04, 0.03, 0.08, 0.0, 0.08, 0.0, 0.05, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.12, 13.66, 11.71, 9.09, 2.35, 1.95, 0.0, 2.01, 0.0, 0.81, 0.48, 0.54, 0.27, 0.31, 0.0, 0.6, 0.0, 0.22, 0.12, 0.34, 0.14, 0.21, 0.0, 0.21, 0.0, 0.09, 0.09, 0.07, 0.03, 0.01, 0.0, 0.09, 0.0, 0.06, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [2.31, 13.83, 8.12, 22.49, 3.79, 2.58, 0.01, 5.34, 0.0, 1.05, 0.78, 1.57, 0.48, 0.37, 0.0, 1.14, 0.0, 0.38, 0.13, 0.46, 0.05, 0.25, 0.0, 0.41, 0.0, 0.21, 0.02, 0.21, 0.02, 0.09, 0.0, 0.18, 0.0, 0.08, 0.05, 0.02, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.0, 0.0, 0.04], [0.05, 3.42, 1.68, 3.68, 2.77, 0.88, 0.0, 0.98, 0.0, 0.29, 0.17, 0.31, 0.11, 0.14, 0.0, 0.41, 0.0, 0.13, 0.09, 0.05, 0.04, 0.08, 0.0, 0.1, 0.0, 0.01, 0.01, 0.04, 0.03, 0.02, 0.0, 0.06, 0.0, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.15, 4.69, 1.63, 2.67, 0.97, 2.8, 0.0, 1.16, 0.0, 0.32, 0.16, 0.31, 0.13, 0.16, 0.0, 0.26, 0.0, 0.1, 0.01, 0.1, 0.02, 0.09, 0.0, 0.18, 0.0, 0.05, 0.02, 0.03, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 3.92, 1.58, 4.5, 0.75, 0.95, 0.0, 3.39, 0.0, 0.31, 0.25, 0.49, 0.19, 0.1, 0.0, 0.54, 0.0, 0.1, 0.05, 0.23, 0.12, 0.14, 0.0, 0.39, 0.0, 0.07, 0.03, 0.07, 0.02, 0.04, 0.0, 0.11, 0.0, 0.01, 0.02, 0.05, 0.0, 0.0, 0.0, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 2.26, 0.75, 1.04, 0.2, 0.18, 0.0, 0.26, 0.0, 0.11, 0.02, 0.07, 0.03, 0.02, 0.0, 0.04, 0.0, 0.03, 0.01, 0.0, 0.02, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.01, 0.73, 0.6, 0.72, 0.1, 0.15, 0.0, 0.22, 0.0, 0.05, 0.02, 0.06, 0.02, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 1.41, 0.58, 1.37, 0.22, 0.22, 0.0, 0.45, 0.0, 0.06, 0.05, 0.15, 0.05, 0.02, 0.0, 0.08, 0.0, 0.01, 0.0, 0.05, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.59, 0.25, 0.49, 0.12, 0.09, 0.0, 0.1, 0.0, 0.02, 0.02, 0.02, 0.02, 0.01, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.95, 0.32, 0.37, 0.07, 0.1, 0.0, 0.09, 0.0, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.3, 0.73, 1.14, 0.17, 0.21, 0.0, 0.4, 0.0, 0.04, 0.05, 0.04, 0.0, 0.01, 0.0, 0.13, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.53, 0.26, 0.3, 0.07, 0.09, 0.0, 0.05, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.17, 0.16, 0.06, 0.01, 0.0, 0.02, 0.0, 0.01, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.52, 0.38, 0.44, 0.06, 0.03, 0.0, 0.12, 0.0, 0.01, 0.03, 0.04, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.09, 0.15, 0.01, 0.02, 0.0, 0.05, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.33, 0.17, 0.25, 0.09, 0.05, 0.0, 0.06, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.35, 0.26, 0.54, 0.04, 0.12, 0.0, 0.18, 0.0, 0.02, 0.02, 0.05, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.09, 0.12, 0.03, 0.06, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.08, 0.06, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.1, 0.06, 0.2, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.03, 0.03, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.06, 0.06, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.15, 0.11, 0.14, 0.04, 0.04, 0.0, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.03, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.02, 0.01, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.09, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.02, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.977456849545951</v>
+        <v>4.521966412966819</v>
       </c>
       <c r="C5" t="n">
-        <v>2.215829415817021</v>
+        <v>2.146508793366568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4617806405643268</v>
+        <v>0.6388622621504576</v>
       </c>
       <c r="E5" t="n">
-        <v>3.024632209046251</v>
+        <v>3.409677404095584</v>
       </c>
       <c r="F5" t="n">
-        <v>1.124567165624179</v>
+        <v>1.284540555996579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02083722630294157</v>
+        <v>0.02169308645628833</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2782934422511605</v>
+        <v>0.2564917932410314</v>
       </c>
       <c r="I5" t="n">
-        <v>7.219113518985556</v>
+        <v>99.59188521159744</v>
       </c>
       <c r="J5" t="n">
-        <v>5.115114856970466</v>
+        <v>5.817215828899594</v>
       </c>
       <c r="K5" t="n">
-        <v>1.611058270206264</v>
+        <v>1.847660585713729</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8164965339791712</v>
+        <v>0.9257004861184853</v>
       </c>
       <c r="M5" t="n">
-        <v>1.688802164257258</v>
+        <v>1.925406645360922</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[20.11833740645584, 20.689185580877755, 14.629818864223845, 19.339855221795222, 4.947837911653938, 6.594929870741616, 0.4630334761116094, 4.219893363581597, 2.2089816658360917, 2.984024128588776, 1.514562643141577, 0.6048966853934645, 1.6891121928397776, 0.19595917942265423, 0.49101934788763685, 0.2861817604250835, 0.24166091947189106, 0.25514701644346155, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[18.010652403508317, 20.55113378867453, 19.739290767400938, 14.459111314323577, 5.651583848798495, 7.247233955103146, 0.9844287683728066, 4.5818227813829715, 1.72843860174436, 2.3707382816329607, 1.735396208362805, 0.6183849933496125, 1.4602739469017445, 0.195959179422654, 0.6248199740725329, 0.32496153618543866, 0.1705872210923199, 0.21794494717703372, 0.09949874371066196, 0.23748684174075813, 0.0, 0.17058722109231975, 0.13999999999999985, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[19.378967980777514, 0.7328710664230104, 15.375682098690778, 1.522202351857333, 15.087743370033836, 19.250049350586096, 3.4912891601813762, 20.47950194706892, 1.7634908562280687, 22.625850260266468, 2.2484661438411773, 21.538512019171613]</t>
+          <t>[34.56705946417773, 29.328866326539124, 31.05417202245135, 26.853908467856225, 27.717595494559042, 31.252302315189514, 31.338289678921527, 35.15886659151571, 31.253279827883667, 31.287019672701334, 31.556265621901467, 30.928342988268856]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[19.64031313395996, 60.41893329081537, 71.00163660085589, 23.451607620800758, 44.63015124330188, 3.0790258199631917, 6.9896781041761855, 3.0110463297664456, 5.320714237769211, 1.7647662734764615, 2.6821446642565716, 1.4148851543499918, 2.9619419305583943, 0.953467356546621, 1.8708286933869707, 0.8182909018191513, 2.0671477934584157, 0.5589275444992842, 1.1806354221350477, 0.44844174649557345, 1.130309692075584, 0.45343136195018524, 0.5806031346797914, 0.27640549922170465, 0.5122499389946282, 0.13999999999999987, 0.25514701644346155, 0.17058722109231989, 0.34117444218463994, 0.1399999999999999, 0.1399999999999999, 0.0]</t>
+          <t>[15.181893821259598, 71.30855488649311, 69.31542108362325, 24.970983160460467, 29.62008777839796, 3.6907858241843297, 7.210624106136723, 2.525292062316752, 6.451480450253261, 1.7170905625505017, 2.940935225400246, 1.6376507564190854, 2.832242927434016, 1.2650691680694768, 2.5109958183955636, 1.239798370703881, 2.179242987828572, 0.8543418519538878, 1.2558264211267405, 0.7499333303701071, 0.8179853299418034, 0.37134889255254305, 0.6433506042586733, 0.4217819341792631, 0.6651315659326358, 0.2179449471770336, 0.27129319932501095, 0.2764054992217047, 0.23748684174075818, 0.09949874371066196, 0.1959591794226542, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[11.220766462234195, 79.184192867011, 61.15486570993347, 64.4311912042607, 20.444096947529864, 15.783523054121973, 0.0, 44.31072556390834, 0.0, 3.7387698511676257, 2.7792804824270605, 5.86290030616247, 1.9171854370404553, 2.2445266761613674, 0.0, 5.119921874403945, 0.0, 1.6902958320956727, 1.044222198576528, 1.632298992219256, 0.8991106717195614, 1.0827742146911334, 0.0, 2.264862026702731, 0.0, 0.9219544457292888, 0.5219195340279948, 1.1410083259994208, 0.5301886456724627, 0.7123903424387508, 0.0, 1.8168929522676884, 0.09949874371066196, 0.4702127178203501, 0.27129319932501084, 0.5173006862551022, 0.1959591794226542, 0.24166091947189133, 0.0, 0.7499333303701071, 0.0, 0.17058722109231977, 0.13999999999999993, 0.37669616403674805, 0.0, 0.0, 0.0, 0.45825756949558477, 0.0, 0.09949874371066199, 0.09949874371066196, 0.3241913015489461, 0.0, 0.09949874371066196, 0.0, 0.3536947836765472, 0.0, 0.0, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.38157568056677843]</t>
+          <t>[14.052273837354582, 79.89874842574193, 48.59081703367417, 55.29211426596019, 23.34312746827211, 20.967870659654498, 0.13999999999999987, 21.37816409329856, 0.0, 4.989428825025965, 4.0405321431712435, 6.3464872173510285, 1.857848217697023, 2.3514038360094593, 0.0, 4.691812016694615, 0.0, 1.8463748265181688, 1.1001818031580048, 2.2197972880423116, 0.9219544457292888, 1.512448346225417, 0.0, 2.50798724079689, 0.0, 1.0223013254417697, 0.7884161337770814, 0.9109884741312586, 0.4769696007084731, 0.7078841713161832, 0.0, 1.2621806526801138, 0.0, 0.5530822723609935, 0.4877499359302882, 0.5038849074937651, 0.13999999999999985, 0.27129319932501095, 0.0, 0.6063002556489652, 0.0, 0.09949874371066196, 0.13999999999999985, 0.3192177939902478, 0.17058722109231977, 0.0, 0.0, 0.5413871073455663, 0.0, 0.1705872210923198, 0.09949874371066199, 0.2764054992217047, 0.0, 0.09949874371066195, 0.0, 0.3536947836765474, 0.0, 0.22158519806160276, 0.1705872210923199, 0.1399999999999999, 0.0, 0.3979949748426478, 0.0, 0.8368990381163055]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[9.345052166788584, 0.13999999999999987, 6.857193303385868, 0.0, 2.7477263328068173, 1.3240468269664782, 0.09949874371066199, 3.4346906702059803, 0.2179449471770336, 7.0415623266431435, 0.2416609194718912, 7.219418259112019], [0.09949874371066196, 0.13999999999999987, 0.39191835884530835, 0.17058722109231997, 0.17058722109231994, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066196, 0.13999999999999987], [7.734823850612242, 0.35369478367654766, 7.768262353963078, 0.13999999999999987, 5.576836020540679, 1.217538500417954, 0.41231056256176646, 2.2320170250246756, 0.1399999999999999, 2.204971655146614, 0.17058722109231977, 2.0713280763799826], [0.0, 0.09949874371066196, 0.1705872210923199, 0.3136877428271622, 0.09949874371066196, 0.5230678732248804, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.19899748742132392, 0.09949874371066196], [3.2495538155260646, 0.17058722109231994, 6.062705666614535, 0.13999999999999993, 9.757130725782043, 6.2684846653716875, 1.177242540855538, 7.237478842801545, 0.17058722109232, 3.645202326346233, 0.0, 1.8594622878671123], [0.8268010643437755, 0.0, 1.0009495491781795, 0.7959899496852957, 6.681885961313615, 7.908071825672808, 0.5148786264742395, 4.2246301613277355, 0.17058722109231997, 1.0428326807307102, 0.13999999999999987, 0.13999999999999987], [0.09949874371066196, 0.0, 0.27640549922170476, 0.0, 1.4157683426323673, 0.29849623113198565, 0.8086408349817619, 0.6269768735766893, 0.09949874371066196, 0.648922183316305, 0.0, 0.35369478367654733], [2.5685793738952274, 0.19595917942265412, 2.1702534414210706, 0.09949874371066196, 6.855793170742535, 4.202427869696279, 1.0594338110519215, 12.146703256439583, 0.21794494717703378, 7.892141661171572, 0.09949874371066196, 1.358528615819335], [0.0, 0.09949874371066196, 0.19899748742132392, 0.09949874371066196, 0.21794494717703367, 0.3136877428271622, 0.1399999999999999, 0.21794494717703372, 0.48774993593028815, 0.5225897052181567, 0.39799497484264784, 0.22158519806160307], [7.637663255210982, 0.0, 2.1235818797494006, 0.0, 3.5759614091877445, 1.0432641084595986, 0.3766961640367475, 7.913349480466537, 0.39736632972611063, 10.667234880698935, 0.19595917942265412, 6.224596372456613], [0.13999999999999987, 0.09949874371066196, 0.17058722109231977, 0.19899748742132392, 0.13999999999999993, 0.13999999999999987, 0.0, 0.21794494717703397, 0.49749371855331087, 0.0, 1.1464728518373204, 0.0], [7.260165287374662, 0.13999999999999987, 2.019504889818295, 0.0, 1.5746745695539757, 0.09949874371066197, 0.13999999999999987, 1.9619123323940855, 0.31368774282716216, 6.631221606913765, 0.09949874371066196, 7.495705437115308]]</t>
+          <t>[[14.363843496780387, 4.113137488584588, 8.773961477006836, 4.4238444818958085, 1.848134194261879, 2.26563456894531, 0.19595917942265406, 3.3015753815413658, 1.7971087891388202, 4.7759396981117765, 8.593020423576334, 5.16157921570521], [4.393301719663705, 10.886225241101718, 2.408547280000954, 6.022383249179679, 3.344772040064913, 0.7952358140828412, 2.073137718531984, 0.19595917942265392, 2.2847319317591728, 1.6511813952440242, 3.8921844766146387, 8.455199583688138], [10.085529237476829, 2.6746775506591436, 10.731313992237856, 4.183969407153931, 7.853782528183477, 3.5689774445910976, 1.6124515496597118, 3.0206621790594186, 0.09949874371066195, 2.1742814905158894, 1.7182549286994626, 4.666594047054018], [4.008229035372104, 6.157077228685703, 4.416548426090218, 8.892530573464454, 3.9570696228396076, 6.605838326813636, 5.089783885392382, 1.3303758867327686, 2.2496888673769964, 0.276405499221705, 2.0024734704859375, 1.5454449197561178], [1.3673331708109766, 2.974894956128705, 9.299268788458585, 4.261267417095528, 8.42956701141879, 1.359558751948587, 6.17720810722773, 4.915648482143527, 1.9994749310756554, 2.72213151776324, 0.2764054992217047, 2.333152373935314], [2.5564819576910773, 1.1580587204455581, 4.954149775693101, 7.155305723726978, 1.7947423213375233, 10.821732763287038, 1.0922911699725488, 8.975522268926749, 6.071070745758113, 1.33037588673277, 2.570505786805391, 0.19595917942265415], [0.19595917942265415, 2.7202941017470876, 1.8520259177452143, 5.394988415186817, 6.649060083951717, 1.3891004283348274, 12.37765729045687, 2.85690391858039, 8.112434899584708, 3.9127995093027703, 1.236769986699225, 2.4439926350134518], [2.7759502877393176, 0.23748684174075826, 2.3556527757715053, 1.184736257569591, 5.6078070580218755, 10.798384138379225, 3.2313464685793165, 15.074534818693417, 0.7596709814123481, 9.557844945383874, 4.153600847457544, 1.9209372712298556], [1.3379088160259658, 2.1525798475317943, 0.13999999999999987, 2.370042193717235, 1.3645145656972664, 6.373531203344029, 9.629013448946887, 0.9643650760992962, 8.655004332754551, 0.8724104538575862, 8.55880248632949, 4.315773395348739], [4.8411878707606455, 1.3067134345371987, 2.269449272400685, 0.30594117081556693, 3.0791394901822797, 1.7732456118654298, 4.159759608438931, 9.632009136208296, 1.0420652570736635, 10.47184797445035, 2.769458430812782, 7.205962808674493], [8.07917693827781, 3.63158367657968, 1.755306241087292, 1.9840362899906854, 0.13999999999999985, 2.2860227470434333, 1.7532541173486509, 4.588452898308971, 8.20937878283126, 4.271990168528013, 12.250269384793134, 2.700666584382454], [4.5646029400157015, 7.909608081314772, 4.948494720619598, 1.4035312607847386, 1.9711925324533863, 0.09949874371066199, 2.290938672247688, 2.3995624601164276, 4.837189266505909, 7.541054302947301, 3.4083867151483855, 11.015098728563453]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.3136877428271622, 2.392049330595003, 2.591891201420312, 7.400506739406424, 0.3655133376499406, 0.319217793990248, 0.0, 0.9178235124467011, 0.0, 0.0, 0.0, 0.22158519806160307, 0.0, 0.0, 0.0, 0.1705872210923197, 0.0, 0.09949874371066195, 0.09949874371066196, 0.19899748742132398, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.7302889932031555, 58.663358240046236, 16.250079999803077, 14.195559164752899, 3.1696056537052058, 6.105563037099854, 0.0, 3.049770483167545, 0.0, 1.7369801380557006, 0.8888194417315589, 1.416898020324681, 0.6689544080129826, 1.1651609330903616, 0.0, 1.186423195997111, 0.0, 0.8325262758616084, 0.39736632972611075, 0.5477225575051659, 0.23748684174075788, 0.39293765408777026, 0.0, 0.6371028174478588, 0.0, 0.23748684174075835, 0.17058722109231975, 0.27640549922170465, 0.24166091947189125, 0.09949874371066199, 0.0, 0.30594117081556715, 0.0, 0.17058722109231989, 0.09949874371066193, 0.13999999999999993, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.46946778377222026, 16.11019552953967, 37.770458032700645, 11.377077832202785, 2.617995416344345, 3.694807166822106, 0.0, 3.5079338648269895, 0.0, 1.3213250924734599, 1.0533755265810962, 1.132960723061483, 0.7112664760833309, 0.7681145747868623, 0.0, 1.1873921003611245, 0.0, 0.4330127018922198, 0.5172040216394307, 0.5708765190476836, 0.3104834939252001, 0.3919183588453077, 0.0, 0.542586398650022, 0.0, 0.349141805001922, 0.35369478367654733, 0.17058722109231994, 0.3136877428271623, 0.25980762113533223, 0.0, 0.3411744421846397, 0.09949874371066196, 0.09949874371066195, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [9.737946395416236, 12.56417128186336, 9.844688923475442, 48.5970976499626, 4.468679894554991, 3.835035853808932, 0.0, 10.06715451356539, 0.0, 1.7205812971202492, 1.3533661736573719, 3.9244235245447197, 1.0198039027185566, 0.9175510884958944, 0.0, 2.9688213149329163, 0.0, 0.8659676668328897, 0.45563142999578055, 1.0438390680559915, 0.45552167895721546, 0.481248376620639, 0.0, 0.873842090998139, 0.0, 0.6720119046564581, 0.2374868417407583, 0.8636550237218571, 0.19595917942265412, 0.4841487374764085, 0.0, 0.8046738469715541, 0.0, 0.2179449471770337, 0.19595917942265406, 0.4394314508543965, 0.09949874371066196, 0.09949874371066197, 0.0, 0.4710626285325546, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999993], [0.2416609194718912, 3.1899216291313497, 2.1928064210048275, 4.791492460601393, 10.351540948090772, 1.44968962195361, 0.0, 2.4367806630880837, 0.0, 0.5948949487094339, 0.27129319932501095, 0.7027801932325639, 0.2917190429162964, 0.3241913015489463, 0.0, 0.6526101439603893, 0.0, 0.09949874371066197, 0.27640549922170465, 0.2764054992217049, 0.17058722109231966, 0.17058722109231977, 0.0, 0.30594117081556704, 0.0, 0.09949874371066199, 0.09949874371066197, 0.17058722109231972, 0.09949874371066196, 0.09949874371066199, 0.0, 0.21794494717703375, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6790434448545984, 5.607138307550475, 3.850337647531708, 3.6196546796621356, 1.5023648025696021, 5.325589169284468, 0.0, 1.55161206491829, 0.0, 0.6493073232299171, 0.38729833462074154, 0.5346961754117942, 0.40693979898751603, 0.4308131845707599, 0.0, 0.6557438524302004, 0.0, 0.37469987990390413, 0.19595917942265415, 0.31288975694324056, 0.1705872210923198, 0.3433656942677881, 0.0, 0.3973663297261107, 0.0, 0.13999999999999993, 0.17058722109231994, 0.21794494717703367, 0.0, 0.09949874371066199, 0.0, 0.23748684174075807, 0.0, 0.1705872210923198, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2598076211353319, 3.016023872584566, 3.3614877658560673, 9.113040107450422, 1.8860275713785308, 1.5556349186104033, 0.0, 33.8262191206762, 0.0, 0.5589275444992847, 0.7855571271397139, 1.7039953051578514, 0.33166247903553975, 0.2764054992217047, 0.0, 2.3057319878945175, 0.0, 0.28618176042508386, 0.28618176042508353, 0.4974937185533106, 0.2917190429162963, 0.28618176042508386, 0.0, 1.6110865898517053, 0.0, 0.2374868417407581, 0.2179449471770336, 0.3059411708155672, 0.22158519806160282, 0.2179449471770337, 0.0, 1.1101351269102333, 0.0, 0.09949874371066199, 0.09949874371066197, 0.09949874371066199, 0.09949874371066197, 0.0, 0.0, 0.41231056256176596, 0.0, 0.0, 0.0, 0.2598076211353321, 0.0, 0.0, 0.0, 0.4302324952859785, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.24166091947189122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2179449471770337], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 2.082762588486743, 1.3553966209194985, 1.2877888025604196, 0.7691553809211767, 0.4770744176750628, 0.0, 0.6164414002968974, 0.0, 0.27640549922170504, 0.1705872210923198, 0.17058722109231972, 0.1399999999999999, 0.13999999999999996, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9925220400575493, 1.3369741957120949, 1.1215614116043768, 0.2917190429162964, 0.343365694267788, 0.0, 0.5895761189193471, 0.0, 0.09949874371066199, 0.1399999999999999, 0.13999999999999987, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2917190429162965, 1.9457389341841314, 1.2898061869908977, 4.500788819751487, 0.5030904491242105, 0.29999999999999977, 0.0, 1.1173182178770744, 0.0, 0.13999999999999987, 0.13999999999999985, 0.2764054992217048, 0.0, 0.0, 0.0, 0.3278719262150993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.09949874371066196, 0.7732399368889321, 0.5929586832149443, 0.9429209935090006, 0.3536947836765479, 0.5530822723609934, 0.0, 0.37669616403674755, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.2496399481450653, 0.9850888284819799, 0.7675285010994708, 0.2598076211353318, 0.37134889255254305, 0.0, 0.2551470164434615, 0.0, 0.22158519806160293, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.472786474679884, 1.481181960462658, 2.9856992480824305, 0.8086408349817615, 0.31921779399024747, 0.0, 2.0818021039474397, 0.0, 0.09949874371066199, 0.24166091947189108, 0.30594117081556704, 0.19899748742132398, 0.09949874371066199, 0.0, 0.3059411708155668, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066196, 0.0, 0.1705872210923198, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.123343224486622, 0.5400000000000006, 0.4869291529575944, 0.2917190429162964, 0.2917190429162965, 0.0, 0.13999999999999985, 0.0, 0.13999999999999985, 0.09949874371066195, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.4013726448077897, 0.49759421218498867, 0.44844174649557345, 0.09949874371066196, 0.1705872210923199, 0.0, 0.17058722109231989, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6711184694225013, 0.558211429478115, 1.0809255293497328, 0.36551333764994065, 0.19595917942265403, 0.0, 0.3605551275463987, 0.0, 0.09949874371066193, 0.0, 0.17058722109231994, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667785, 0.2598076211353317, 0.42473521163190636, 0.2598076211353318, 0.19595917942265415, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.09949874371066197, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.47707441767506253, 0.5291502622129176, 0.4394314508543965, 0.1959591794226543, 0.1705872210923196, 0.0, 0.3316624790355398, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.7000000000000014, 0.7937253933193782, 1.0146920715172663, 0.17058722109231977, 0.2374868417407581, 0.0, 1.098134782255803, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.17058722109231986, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.400499687890016, 0.3605551275463987, 0.4092676385936229, 0.19595917942265412, 0.22158519806160326, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.2179449471770337, 0.32419130154894643, 0.2712931993250109, 0.13999999999999996, 0.0, 0.0, 0.09949874371066193, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3059411708155667, 0.39736632972611063, 0.6539113089708731, 0.17058722109231994, 0.19595917942265423, 0.0, 0.29171904291629647, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.22158519806160343, 0.31048349392520086, 0.13999999999999985, 0.0, 0.0, 0.2215851980616035, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27640549922170504, 0.2179449471770337, 0.44090815370097247, 0.0, 0.19595917942265417, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3491418050019224, 0.298496231131986, 0.835224520712845, 0.2179449471770337, 0.22158519806160326, 0.0, 0.8602325267042648, 0.0, 0.0, 0.19899748742132392, 0.1705872210923198, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25980762113533196, 0.17058722109232, 0.1705872210923199, 0.09949874371066199, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231989, 0.17058722109231972, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24166091947189128, 0.0, 0.2917190429162962, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.09949874371066197, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24166091947189133, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2215851980616034, 0.09949874371066195, 0.4217819341792629, 0.09949874371066196, 0.0, 0.0, 0.42, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.23748684174075832, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1705872210923198, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.24166091947189122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.17058722109231989, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.24166091947189125, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.2179449471770337, 0.09949874371066199, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.462168800331653, 9.11352840561767, 1.9995999599919976, 7.440235211335717, 0.2917190429162964, 0.36055512754639873, 0.0, 0.9630680142129111, 0.0, 0.13999999999999999, 0.17058722109231989, 0.2416609194718914, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [9.908839488053077, 61.065763730588024, 17.136426115150147, 14.39270648627283, 5.327626113007556, 5.755788390828836, 0.09949874371066195, 3.496784236981172, 0.0, 2.681249708624693, 1.0295630140986995, 1.6881646839097175, 0.7262919523166979, 1.4162979912433677, 0.0, 1.4232357499725756, 0.0, 0.9400000000000001, 0.4630334761116094, 0.9475758544834294, 0.19595917942265412, 0.5211525688318155, 0.0, 0.7112664760833313, 0.0, 0.47497368348151625, 0.30594117081556704, 0.2416609194718914, 0.17058722109232, 0.30594117081556693, 0.0, 0.33704599092705445, 0.0, 0.2598076211353318, 0.0, 0.09949874371066199, 0.0, 0.19595917942265423, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3815756805667784, 16.609166144030233, 21.77856515016543, 12.83362380623649, 4.191360161093295, 2.8438530201119754, 0.0, 3.312083936134469, 0.0, 1.3834377470634525, 0.9744742172063874, 1.1083320801997936, 0.6760917097554143, 0.9021640649017244, 0.0, 1.6186414056238672, 0.0, 0.6257795138864812, 0.4069397989875159, 0.8027452896155794, 0.4247352116319063, 0.7112664760833313, 0.0, 0.7112664760833313, 0.0, 0.3491418050019222, 0.47106262853255454, 0.3241913015489463, 0.22158519806160323, 0.09949874371066199, 0.0, 0.31921779399024747, 0.0, 0.27640549922170465, 0.09949874371066196, 0.17058722109231972, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [8.143334697775845, 13.461838655993466, 11.649274655531137, 39.55009355235458, 7.388227121576595, 2.4826598639362576, 0.09949874371066199, 7.646201671418301, 0.0, 1.7109938632268678, 1.3826062346163486, 2.6277556964071054, 0.7413501197140261, 0.6108191221630179, 0.0, 1.7030560765870275, 0.0, 0.6599999999999995, 0.3912799509302768, 0.8175573374387872, 0.21794494717703364, 0.51720402163943, 0.0, 0.9601562372864116, 0.0, 0.43116122274620206, 0.13999999999999993, 0.5881326381013046, 0.1399999999999999, 0.3491418050019218, 0.0, 0.5362835071116765, 0.0, 0.2712931993250109, 0.25980762113533173, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.2374868417407581, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.13999999999999993, 0.09949874371066196, 0.0, 0.0, 0.0, 0.24166091947189128], [0.2179449471770337, 4.952130854490822, 3.328302870833723, 6.7392581194075065, 8.62537535415126, 1.812622409659553, 0.0, 1.9234344283078633, 0.0, 0.6677574409918619, 0.44844174649557345, 0.6884039511798287, 0.39736632972611075, 0.4694677837722202, 0.0, 0.8954886933959573, 0.0, 0.36482872693909374, 0.3766961640367474, 0.21794494717703367, 0.24166091947189144, 0.3370459909270545, 0.0, 0.4123105625617663, 0.0, 0.09949874371066193, 0.09949874371066195, 0.31368774282716244, 0.17058722109231983, 0.13999999999999987, 0.0, 0.27640549922170504, 0.0, 0.0, 0.09949874371066196, 0.13999999999999987, 0.13999999999999985, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231983], [0.5361902647381811, 5.178213977811269, 2.579360385832115, 2.9259357477566046, 1.8944920163463346, 12.479583326377531, 0.0, 2.5444842306447897, 0.0, 0.581033561853358, 0.41761226035642235, 0.7306846104852626, 0.39127995093027684, 0.4841487374764086, 0.0, 0.6264183905346327, 0.0, 0.3605551275463987, 0.09949874371066196, 0.3316624790355398, 0.13999999999999987, 0.31921779399024774, 0.0, 0.4975942121849888, 0.0, 0.21794494717703367, 0.13999999999999996, 0.17058722109231989, 0.0, 0.13999999999999987, 0.0, 0.2598076211353322, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.29849623113198553, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 3.8410415254198953, 2.470546498246896, 7.128113354878695, 1.5451537140362444, 2.4346457647879722, 0.0, 8.535683921045814, 0.0, 0.9131812525451909, 0.7533259586659682, 1.6339828640472325, 0.5233545643251816, 0.33166247903553975, 0.0, 1.69952934661335, 0.0, 0.2999999999999999, 0.21794494717703375, 0.7981854421122955, 0.4308131845707599, 0.4694677837722202, 0.0, 1.1126095451684754, 0.0, 0.4302324952859785, 0.1705872210923199, 0.3241913015489463, 0.1399999999999999, 0.19595917942265417, 0.0, 0.48774993593028815, 0.0, 0.09949874371066196, 0.1989974874213239, 0.21794494717703364, 0.0, 0.0, 0.0, 0.32419130154894626, 0.0, 0.0, 0.0, 0.22158519806160334, 0.0, 0.0, 0.0, 0.25980762113533196, 0.0, 0.13999999999999985, 0.0, 0.221585198061603, 0.0, 0.09949874371066195, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.29849623113198553], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.22158519806160334, 2.961823762481489, 1.299038105676658, 1.4691494137765568, 0.6480740698407855, 0.4331281565541543, 0.0, 0.6264183905346323, 0.0, 0.421781934179263, 0.13999999999999987, 0.2917190429162962, 0.1705872210923198, 0.1399999999999999, 0.0, 0.1959591794226542, 0.0, 0.17058722109231966, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.1705872210923198, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239], [0.09949874371066199, 1.0756858277396795, 1.5297058540778377, 1.435827287663806, 0.33166247903553975, 0.4974937185533107, 0.0, 0.8195120499419157, 0.0, 0.3278719262150994, 0.13999999999999987, 0.34117444218464016, 0.1399999999999999, 0.0, 0.0, 0.1705872210923198, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2917190429162962, 2.214023486776956, 1.4503792607452712, 2.674527995740555, 0.7011419257183249, 0.6569627082262744, 0.0, 1.6271140095272971, 0.0, 0.23748684174075815, 0.2958039891549804, 0.8645808232895281, 0.25980762113533223, 0.13999999999999985, 0.0, 0.39191835884530796, 0.0, 0.09949874371066199, 0.0, 0.25980762113533173, 0.09949874371066196, 0.1705872210923197, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.8842510955605318, 0.5545268253204708, 0.9109884741312588, 0.3544009029333872, 0.3491418050019225, 0.0, 0.4795831523312733, 0.0, 0.1399999999999999, 0.13999999999999985, 0.13999999999999985, 0.13999999999999985, 0.09949874371066195, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923198, 1.5124483462254175, 0.9474175425861621, 0.7437069315261219, 0.2551470164434616, 0.29999999999999977, 0.0, 0.31921779399024763, 0.0, 0.09949874371066196, 0.13999999999999993, 0.09949874371066195, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.5716233645501707, 1.7312134472675518, 1.8602150413325882, 0.5840376700179536, 0.45376205218153726, 0.0, 1.4966629547095762, 0.0, 0.2416609194718913, 0.2598076211353319, 0.19595917942265403, 0.0, 0.09949874371066199, 0.0, 0.5595533933415111, 0.0, 0.09949874371066196, 0.0, 0.22158519806160315, 0.09949874371066193, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231964, 1.0144456614328838, 0.687313611097583, 0.6082762530298222, 0.2551470164434616, 0.3192177939902477, 0.0, 0.2179449471770337, 0.0, 0.24166091947189133, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4630334761116094, 0.5109794516416488, 0.5425863986500218, 0.276405499221705, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.17058722109231964, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0721940122944165, 0.9977975746613146, 0.9414881836751864, 0.23748684174075826, 0.17058722109232005, 0.0, 0.5528109984434098, 0.0, 0.09949874371066199, 0.17058722109231983, 0.19595917942265403, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35440090293338716, 0.3491418050019222, 0.40926763859362275, 0.09949874371066196, 0.19899748742132392, 0.0, 0.25980762113533196, 0.0, 0.0, 0.09949874371066193, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.7218725649309575, 0.5109794516416488, 0.5894913061275798, 0.4023679907746148, 0.2179449471770336, 0.0, 0.27640549922170443, 0.0, 0.0, 0.09949874371066195, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.7664854858377949, 0.6726068688320089, 1.2117755567760882, 0.1959591794226541, 0.5706137047074841, 0.0, 0.6982836100038446, 0.0, 0.1399999999999999, 0.13999999999999985, 0.2958039891549809, 0.0, 0.13999999999999985, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.1399999999999999, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.43301270189221963, 0.4710626285325543, 0.3815756805667784, 0.17058722109231975, 0.2764054992217047, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.09949874371066196, 0.0, 0.17058722109231994, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32419130154894626, 0.36551333764994076, 0.2764054992217045, 0.13999999999999993, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.3316624790355398, 0.31048349392520075, 0.6164414002968972, 0.09949874371066199, 0.09949874371066196, 0.0, 0.24166091947189108, 0.0, 0.0, 0.09949874371066197, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19899748742132398, 0.17058722109231986, 0.17058722109232002, 0.31368774282716244, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4476605857119878, 0.23748684174075788, 0.2764054992217046, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1989974874213239, 0.5172040216394306, 0.37134889255254305, 0.44766058571198797, 0.19595917942265423, 0.24166091947189108, 0.0, 0.365513337649941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556693, 0.1705872210923198, 0.195959179422654, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066196, 0.2416609194718914, 0.0, 0.0, 0.0, 0.29849623113198553, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29171904291629647, 0.13999999999999985, 0.09949874371066196, 0.09949874371066199, 0.09949874371066197, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265406, 0.09949874371066196, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999987, 0.3766961640367479, 0.09949874371066195, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231994, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.1959591794226541, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.0, 0.3536947836765474, 0.0, 0.09949874371066193, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.13999999999999987, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.09949874371066195, 0.1705872210923199, 0.0, 0.09949874371066195, 0.0, 0.40926763859362314, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006615389606757477</v>
+        <v>0.02908617020477563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5583001425871184</v>
+        <v>0.5796421282598052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004326625635833702</v>
+        <v>0.002650960888898744</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5011051300647985</v>
+        <v>0.4571528013276576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005974472720615041</v>
+        <v>0.003626967871104119</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9903364236452732</v>
+        <v>1.03551379046768</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006286034385731562</v>
+        <v>0.0006433985879560576</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05076727793489241</v>
+        <v>0.007508942155301573</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1016495918011131</v>
+        <v>0.09926013181411347</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008709140926601295</v>
+        <v>0.004513764298523968</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002387625647216573</v>
+        <v>0.003036570429330594</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004001877521450235</v>
+        <v>0.006228191432646224</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0574400808467853</v>
+        <v>0.06310547403740627</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07354777899270649</v>
+        <v>0.0171935184848447</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02110682067044646</v>
+        <v>0.02895610454350755</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01281496304935608</v>
+        <v>0.005730163867847663</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8359889484561837</v>
+        <v>0.2801405857639732</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0511408537598339</v>
+        <v>0.05154834799375736</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9485354542214153</v>
+        <v>0.9197178941790928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7773846860363272</v>
+        <v>0.7250829354514154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9409555350847332</v>
+        <v>0.9545571181850407</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7071978194356403</v>
+        <v>0.6202784894087229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9480875272506259</v>
+        <v>0.9719908280244258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7470422861221155</v>
+        <v>0.7482101713859916</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9070666671268861</v>
+        <v>0.9032804250755352</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6321205194117184</v>
+        <v>0.9413855110438413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8230994871547119</v>
+        <v>0.8230284024876671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9587978323953397</v>
+        <v>0.9432873117141372</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9630387866650891</v>
+        <v>0.9585635144688655</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9523378941393481</v>
+        <v>0.9492620759259921</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7883650670395361</v>
+        <v>0.7893048782285865</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8937466298907321</v>
+        <v>0.9622601228663757</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9358297426636245</v>
+        <v>0.9454538467471573</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9760395248144524</v>
+        <v>0.9612670266456843</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7848864564119475</v>
+        <v>0.9038742332013391</v>
       </c>
       <c r="S7" t="n">
-        <v>0.95666358615834</v>
+        <v>0.9458796090943652</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004594596380780996</v>
+        <v>0.05145330910599431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1776083704115699</v>
+        <v>0.1386520294990429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03381660191222575</v>
+        <v>0.007616406980450234</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1969103276675247</v>
+        <v>0.0681244693668259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02417122216492876</v>
+        <v>0.0101952425196582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5198011007789489</v>
+        <v>0.6188720880382115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1026793083617891</v>
+        <v>0.08708303938863565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1751665549697246</v>
+        <v>1.815451712516441</v>
       </c>
       <c r="J8" t="n">
-        <v>1.491715785276219</v>
+        <v>2.341599411853895</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01511399927881886</v>
+        <v>0.0291124236232135</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2513396756024286</v>
+        <v>0.2834145480968698</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1725248092378351</v>
+        <v>0.1743785828611006</v>
       </c>
       <c r="N8" t="n">
-        <v>2.096301636852255</v>
+        <v>0.5213587526088228</v>
       </c>
       <c r="O8" t="n">
-        <v>1.60928288411102</v>
+        <v>3.021497387782202</v>
       </c>
       <c r="P8" t="n">
-        <v>1.047414395497546</v>
+        <v>0.8420917114502194</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5219633664738252</v>
+        <v>0.2466450350363277</v>
       </c>
       <c r="R8" t="n">
-        <v>1.691380685045874</v>
+        <v>3.465229807987456</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6643306766070145</v>
+        <v>0.2219537658896956</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9437871365436667</v>
+        <v>0.925494066225503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.804484514863667</v>
+        <v>0.7536875985105037</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9110022544606835</v>
+        <v>0.9581015924998816</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8282392192776038</v>
+        <v>0.8725480521719867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9240582860510156</v>
+        <v>0.9452669541419584</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7570860974437807</v>
+        <v>0.7576697723367569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8661126555680561</v>
+        <v>0.8241992150477555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.629149742510283</v>
+        <v>0.9278474855310218</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1627401177167104</v>
+        <v>0.1909503500416912</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9442805422748139</v>
+        <v>0.9263561654123474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9407733196390198</v>
+        <v>0.9376900199295706</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9363648880833159</v>
+        <v>0.9307460665602463</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6413421488750352</v>
+        <v>0.5771019954598312</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8734640597768105</v>
+        <v>0.9143852583863024</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9153434911011289</v>
+        <v>0.9087759144361262</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9318719685847969</v>
+        <v>0.9549215206595039</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7475145820587176</v>
+        <v>0.8637172283082266</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9527148645503913</v>
+        <v>0.9433246043559469</v>
       </c>
     </row>
   </sheetData>
